--- a/SuppXLS/Scen_PV_CAP_BND.xlsx
+++ b/SuppXLS/Scen_PV_CAP_BND.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_MACIEK\Uczelnia\Przedmioty\Integrated Energy Resource Planning\ELAND_02\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814173C0-2880-425E-A2A3-466BBEFAB928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B583D32A-8B78-46A5-8592-F35CF9CABF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,9 +53,6 @@
     <t>Attribute Name</t>
   </si>
   <si>
-    <t>PSet_CN</t>
-  </si>
-  <si>
     <t>\I: Process Set: Process Name</t>
   </si>
   <si>
@@ -87,6 +84,9 @@
   </si>
   <si>
     <t>NEW_BC_PP</t>
+  </si>
+  <si>
+    <t>PSet_PN</t>
   </si>
 </sst>
 </file>
@@ -234,11 +234,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -248,13 +248,13 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -543,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,16 +565,16 @@
     </row>
     <row r="4" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>2</v>
@@ -582,10 +582,10 @@
     </row>
     <row r="5" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>4</v>
@@ -597,16 +597,16 @@
     </row>
     <row r="6" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="11">
         <v>2025</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="18">
         <v>2.5</v>
@@ -614,16 +614,16 @@
     </row>
     <row r="7" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="19">
         <v>2025</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="20">
         <v>5</v>
@@ -631,16 +631,16 @@
     </row>
     <row r="8" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="11">
         <v>2026</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" s="18">
         <v>5</v>
@@ -648,16 +648,16 @@
     </row>
     <row r="9" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="19">
         <v>2028</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" s="20">
         <v>7.5</v>
@@ -665,16 +665,16 @@
     </row>
     <row r="10" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="22">
         <v>2032</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" s="23">
         <v>1</v>
